--- a/data/0.reference/2.look_ups/Oromiya/zones_field.xlsx
+++ b/data/0.reference/2.look_ups/Oromiya/zones_field.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t xml:space="preserve">Region</t>
   </si>
@@ -33,9 +33,6 @@
   </si>
   <si>
     <t xml:space="preserve">jima</t>
-  </si>
-  <si>
-    <t xml:space="preserve">unkown</t>
   </si>
   <si>
     <t xml:space="preserve">west arsi</t>
@@ -429,14 +426,6 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B8" t="s">
-        <v>9</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
